--- a/data/trans_camb/P19-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 11,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,77; 20,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 11,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 4,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 10,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; 0,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 5,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 13,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 2,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 50,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,03; 91,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; 49,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 28,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,48; 0,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,66; 19,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,29; 43,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,16; 8,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 13,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 10,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 14,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; 5,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 5,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 12,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 6,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 29,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 52,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,12; 41,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,09; 17,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,8; 48,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,34; 16,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 17,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,62; 44,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 22,14</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 4,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 7,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 7,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 5,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 8,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 10,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 4,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 6,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 7,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,5%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,79; 19,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 33,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; 29,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,36; 19,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 27,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 35,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 14,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 21,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 27,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 8,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 6,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 1,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 4,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 4,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 1,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 4,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 3,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; 17,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,51; 36,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,49; 24,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 4,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,38; 14,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,01; 13,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 2,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 16,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; 11,75</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 1,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 9,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 6,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 4,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 7,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 9,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 1,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 6,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 6,86</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,69; 7,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; 42,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; 31,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,92; 17,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 29,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 37,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,5; 4,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 24,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 28,08</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 0,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 3,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 6,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 5,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 9,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 3,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 2,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 5,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 3,57</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,8%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,86; 2,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,37; 21,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 43,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 32,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,5; 60,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,86; 20,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,4; 13,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 35,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; 21,12</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 2,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 6,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 1,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 5,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 1,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 0,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 5,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,16</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 8,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 26,74</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 15,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 4,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 17,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 4,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 3,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,82; 19,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 8,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,34</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 11,28</t>
+          <t>-5,5; 12,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 0,06</t>
+          <t>-16,13; 0,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 2,8</t>
+          <t>-7,82; 3,83</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>-19,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-7,23%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 49,04</t>
+          <t>-19,85; 55,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 0,13</t>
+          <t>-38,58; 1,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 8,98</t>
+          <t>-23,23; 12,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 10,81</t>
+          <t>-2,67; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,47</t>
+          <t>-16,66; 3,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,3</t>
+          <t>-6,71; 5,09</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-11,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 41,7</t>
+          <t>-9,13; 44,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 16,71</t>
+          <t>-47,13; 10,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 22,14</t>
+          <t>-21,31; 17,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,1</t>
+          <t>-3,77; 7,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,58</t>
+          <t>1,32; 10,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 7,71</t>
+          <t>0,24; 7,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 29,89</t>
+          <t>-12,8; 29,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 35,46</t>
+          <t>3,73; 36,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 27,58</t>
+          <t>0,81; 28,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-3,09</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 6,0</t>
+          <t>-19,99; 4,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,62</t>
+          <t>-4,46; 11,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,61</t>
+          <t>-16,01; 3,67</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-21,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-9,57%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 24,41</t>
+          <t>-67,01; 15,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 13,79</t>
+          <t>-11,47; 31,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 11,75</t>
+          <t>-46,22; 11,51</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,57</t>
+          <t>-4,21; 6,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,88</t>
+          <t>-1,21; 9,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,86</t>
+          <t>-0,63; 7,03</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 31,91</t>
+          <t>-14,85; 32,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 37,51</t>
+          <t>-3,63; 38,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 28,08</t>
+          <t>-2,2; 29,01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,2</t>
+          <t>-9,39; 3,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,44</t>
+          <t>-7,95; 4,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,82</t>
+          <t>-1,04; 11,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,26</t>
+          <t>-1,49; 11,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,48</t>
+          <t>2,19; 15,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 3,41</t>
+          <t>-17,14; 6,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,19</t>
+          <t>-3,61; 5,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,94</t>
+          <t>-0,79; 8,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,57</t>
+          <t>-11,24; 6,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-22,8%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-21,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>-3,85%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 2,26</t>
+          <t>-38,62; 20,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 21,7</t>
+          <t>-33,63; 23,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 43,72</t>
+          <t>-3,58; 66,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 32,94</t>
+          <t>-6,4; 60,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,5; 60,11</t>
+          <t>8,87; 80,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 20,35</t>
+          <t>-71,63; 29,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 13,3</t>
+          <t>-15,43; 29,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 35,81</t>
+          <t>-3,04; 43,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 21,12</t>
+          <t>-49,17; 30,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,03</t>
+          <t>-10,18; 1,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,3</t>
+          <t>-6,3; 5,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,68</t>
+          <t>-5,57; 6,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,24</t>
+          <t>-5,96; 4,41</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,37</t>
+          <t>-2,67; 9,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,51</t>
+          <t>-4,71; 4,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,98</t>
+          <t>-6,76; 1,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,25</t>
+          <t>-2,57; 6,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,16</t>
+          <t>-3,42; 4,22</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-33,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-60,42; 11,25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-35,53; 60,42</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-31,71; 64,47</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-35,7; 41,02</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,62; 89,93</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-27,8; 40,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-41,03; 11,83</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-15,36; 59,02</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-20,89; 38,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 2,03</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 6,3</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 3,1</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 1,24</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 5,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 1,89</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 0,98</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 5,25</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 1,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-10,05; 8,54</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>7,02; 26,74</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 15,58</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; 12,69</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-9,7; 4,04</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>2,66; 17,83</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 4,93</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; 6,0</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-7,69; 3,5</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>6,82; 19,04</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 8,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; 6,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 11,49</t>
+          <t>-0,47; 11,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 20,06</t>
+          <t>7,39; 19,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 12,75</t>
+          <t>-5,17; 12,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 4,38</t>
+          <t>-8,46; 4,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 10,68</t>
+          <t>-2,38; 10,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 0,67</t>
+          <t>-16,3; 0,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,97</t>
+          <t>-2,63; 6,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,35</t>
+          <t>4,49; 13,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 3,83</t>
+          <t>-8,65; 3,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 50,99</t>
+          <t>-1,91; 49,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 91,92</t>
+          <t>26,02; 86,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 55,18</t>
+          <t>-18,98; 54,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 12,17</t>
+          <t>-19,87; 11,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 28,87</t>
+          <t>-5,67; 29,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 1,94</t>
+          <t>-38,96; 1,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 19,99</t>
+          <t>-7,66; 19,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 43,92</t>
+          <t>13,11; 45,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 12,28</t>
+          <t>-25,84; 11,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 7,34</t>
+          <t>-2,63; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 13,03</t>
+          <t>2,77; 13,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 11,37</t>
+          <t>-3,02; 11,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,35</t>
+          <t>-5,55; 5,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,53</t>
+          <t>3,27; 14,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 3,6</t>
+          <t>-15,41; 4,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,03</t>
+          <t>-2,55; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,51</t>
+          <t>4,67; 12,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 5,09</t>
+          <t>-7,0; 4,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 29,26</t>
+          <t>-8,87; 30,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 52,46</t>
+          <t>9,59; 54,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 44,3</t>
+          <t>-10,58; 43,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 17,63</t>
+          <t>-15,23; 17,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,8; 48,02</t>
+          <t>9,53; 47,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 10,64</t>
+          <t>-43,02; 12,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 17,7</t>
+          <t>-8,38; 16,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 44,82</t>
+          <t>14,46; 43,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 17,34</t>
+          <t>-23,54; 16,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 4,49</t>
+          <t>-4,95; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,77</t>
+          <t>-2,53; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,15</t>
+          <t>-3,55; 7,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,89</t>
+          <t>-3,78; 6,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 8,39</t>
+          <t>-1,96; 8,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,86</t>
+          <t>1,22; 11,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,06</t>
+          <t>-2,92; 3,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,05</t>
+          <t>-0,7; 6,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 7,82</t>
+          <t>0,02; 7,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 19,34</t>
+          <t>-17,1; 20,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 33,32</t>
+          <t>-8,93; 31,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 29,6</t>
+          <t>-12,65; 29,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 19,51</t>
+          <t>-10,69; 21,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 27,23</t>
+          <t>-5,49; 28,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 36,01</t>
+          <t>3,43; 36,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 14,8</t>
+          <t>-9,35; 13,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 21,97</t>
+          <t>-2,21; 22,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 28,09</t>
+          <t>0,43; 26,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,34</t>
+          <t>-6,81; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 8,9</t>
+          <t>-2,78; 8,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 4,04</t>
+          <t>-18,84; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 1,49</t>
+          <t>-10,97; 0,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,83</t>
+          <t>-6,89; 4,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 11,47</t>
+          <t>-4,5; 10,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,04</t>
+          <t>-6,8; 1,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,98</t>
+          <t>-3,25; 4,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 3,67</t>
+          <t>-15,98; 3,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 17,64</t>
+          <t>-22,29; 17,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 36,29</t>
+          <t>-8,98; 34,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 15,37</t>
+          <t>-65,97; 15,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 4,66</t>
+          <t>-27,05; 2,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 14,48</t>
+          <t>-17,09; 13,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 31,32</t>
+          <t>-11,38; 32,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 2,61</t>
+          <t>-19,84; 4,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 16,42</t>
+          <t>-9,27; 14,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 11,51</t>
+          <t>-45,73; 11,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 1,73</t>
+          <t>-9,5; 2,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 9,04</t>
+          <t>-3,88; 8,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,81</t>
+          <t>-3,93; 6,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 4,36</t>
+          <t>-9,14; 3,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 7,86</t>
+          <t>-4,87; 7,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,98</t>
+          <t>-0,85; 9,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 1,11</t>
+          <t>-7,16; 1,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 6,26</t>
+          <t>-2,42; 6,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,03</t>
+          <t>-0,83; 6,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 7,5</t>
+          <t>-35,69; 10,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 42,32</t>
+          <t>-14,25; 42,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 32,57</t>
+          <t>-14,71; 31,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 17,07</t>
+          <t>-27,02; 14,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 29,8</t>
+          <t>-15,3; 30,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 38,16</t>
+          <t>-3,06; 36,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 4,5</t>
+          <t>-24,82; 5,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 24,52</t>
+          <t>-8,39; 25,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 29,01</t>
+          <t>-2,75; 27,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 3,47</t>
+          <t>-9,79; 3,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 4,22</t>
+          <t>-7,75; 4,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 11,75</t>
+          <t>-0,51; 10,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 11,37</t>
+          <t>-1,7; 11,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 15,13</t>
+          <t>1,59; 14,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 6,03</t>
+          <t>-18,04; 5,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,67</t>
+          <t>-3,68; 5,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,53</t>
+          <t>-0,61; 8,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 6,27</t>
+          <t>-12,1; 6,26</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 20,16</t>
+          <t>-40,43; 18,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 23,33</t>
+          <t>-32,01; 27,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 66,73</t>
+          <t>-2,18; 61,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 60,58</t>
+          <t>-7,11; 61,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,87; 80,9</t>
+          <t>5,89; 76,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 29,07</t>
+          <t>-65,5; 26,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 29,76</t>
+          <t>-15,74; 29,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 43,2</t>
+          <t>-3,11; 41,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 30,89</t>
+          <t>-50,78; 31,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 1,04</t>
+          <t>-10,0; 1,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 5,85</t>
+          <t>-5,57; 6,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,41</t>
+          <t>-4,61; 6,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,41</t>
+          <t>-6,42; 4,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 9,43</t>
+          <t>-2,28; 9,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,48</t>
+          <t>-5,47; 4,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 1,26</t>
+          <t>-6,57; 1,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,53</t>
+          <t>-2,48; 6,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,22</t>
+          <t>-3,19; 4,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-60,42; 11,25</t>
+          <t>-60,4; 12,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 60,42</t>
+          <t>-32,13; 63,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 64,47</t>
+          <t>-27,73; 62,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 41,02</t>
+          <t>-38,52; 38,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 89,93</t>
+          <t>-13,3; 89,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 40,43</t>
+          <t>-31,09; 40,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 11,83</t>
+          <t>-40,81; 11,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 59,02</t>
+          <t>-16,11; 53,25</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 38,89</t>
+          <t>-19,97; 36,41</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,03</t>
+          <t>-2,4; 2,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,3</t>
+          <t>2,03; 6,63</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,1</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,24</t>
+          <t>-3,23; 1,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,37</t>
+          <t>0,92; 5,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,89</t>
+          <t>-7,46; 1,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,98</t>
+          <t>-2,14; 1,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,25</t>
+          <t>1,88; 5,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,82</t>
+          <t>-4,23; 1,62</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 8,54</t>
+          <t>-9,14; 8,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7,02; 26,74</t>
+          <t>7,74; 27,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 12,69</t>
+          <t>-22,64; 13,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 4,04</t>
+          <t>-10,16; 4,68</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>2,66; 17,83</t>
+          <t>2,79; 18,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 6,0</t>
+          <t>-23,14; 6,12</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,5</t>
+          <t>-7,45; 4,08</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,82; 19,04</t>
+          <t>6,48; 19,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 6,6</t>
+          <t>-14,59; 5,82</t>
         </is>
       </c>
     </row>
